--- a/df_to_excel.xlsx
+++ b/df_to_excel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="hoja_ejemplo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoja_ejemplo" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
